--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-898982.8052568446</v>
+        <v>-901531.462442865</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>240.3419950628166</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>387.6625504680442</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>144.2875934942263</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.115854970364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>88.36462695393558</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>97.18111948505729</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.73332682041254</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.9574048604292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.95687341106452</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>112.0808863526774</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>134.3542165280277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812021</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8253826161915213</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.867404271418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989452</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180001</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>205.5639206769104</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869786</v>
+        <v>164.2607468869787</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036691</v>
+        <v>151.6755878036692</v>
       </c>
       <c r="D34" t="n">
-        <v>55.15928926145666</v>
+        <v>133.0442397232538</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516105</v>
+        <v>52.97777888981231</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>149.9529049973102</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512652</v>
+        <v>124.7234795512653</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360683</v>
+        <v>65.69460302360692</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516299</v>
+        <v>50.80401341516306</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066859</v>
+        <v>165.455052706686</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323296</v>
+        <v>201.8342170323297</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942855</v>
+        <v>270.6132410942856</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288693</v>
+        <v>236.5664100288694</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416323</v>
+        <v>270.9517650416324</v>
       </c>
       <c r="X34" t="n">
         <v>210.1384220940785</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571361</v>
+        <v>203.0134200571362</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652638</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328344</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.430764345701</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>869.0763550278962</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>869.0763550278962</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>458.0904502382887</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653546</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392466</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392466</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064542</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.453584903148</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601529</v>
+        <v>531.3099827059877</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>362.3737997780809</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>212.2571603657451</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.361223971664</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>933.7510266797576</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>712.9584475362275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1513.341883274785</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C5" t="n">
-        <v>1144.379366334374</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="D5" t="n">
-        <v>786.1136677276231</v>
+        <v>1409.612821678939</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>1023.824569080695</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>612.8386642910875</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>197.766214136084</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2290.081055314718</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.941723338907</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1673.251768137125</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1673.251768137125</v>
+        <v>1549.628328360739</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.567279931238</v>
+        <v>1549.628328360739</v>
       </c>
       <c r="W7" t="n">
-        <v>1129.150109894277</v>
+        <v>1260.211158323778</v>
       </c>
       <c r="X7" t="n">
-        <v>901.1605589962596</v>
+        <v>1032.221607425761</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>811.4290282822308</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>889.4262728751039</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>92.6521154872521</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>81.62006937265265</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4893,7 +4893,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.798574724517</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.798574724517</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098236</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797189</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443771</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603202</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397315</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462337</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318807</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,22 +5765,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188005</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908936</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908936</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908936</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908936</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057735</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925704</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490403</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C28" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356196</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.866460342035</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,19 +6710,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539506</v>
+        <v>778.7344347539495</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703057999</v>
+        <v>625.5267703057987</v>
       </c>
       <c r="D34" t="n">
-        <v>569.8103165063487</v>
+        <v>491.1386493732192</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037118</v>
+        <v>437.6257414037117</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037118</v>
+        <v>437.6257414037117</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983476</v>
+        <v>286.1581605983479</v>
       </c>
       <c r="H34" t="n">
-        <v>160.174847920302</v>
+        <v>160.1748479203021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J34" t="n">
-        <v>189.468202440305</v>
+        <v>189.4682024403048</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278526</v>
+        <v>466.5729859278524</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658019</v>
+        <v>872.3871010658016</v>
       </c>
       <c r="M34" t="n">
         <v>1309.812324758846</v>
@@ -6871,10 +6871,10 @@
         <v>1742.637717380863</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051858</v>
+        <v>2127.582519051857</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587425</v>
+        <v>2435.673495587424</v>
       </c>
       <c r="Q34" t="n">
         <v>2570.287251276333</v>
@@ -6883,25 +6883,25 @@
         <v>2518.970066008492</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143153</v>
+        <v>2351.843750143152</v>
       </c>
       <c r="T34" t="n">
         <v>2147.97080364585</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469804</v>
+        <v>1874.624095469803</v>
       </c>
       <c r="V34" t="n">
         <v>1635.668125743673</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186469</v>
+        <v>1361.979474186468</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768208</v>
+        <v>1149.718441768207</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.654381104434</v>
+        <v>944.654381104433</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384026</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>124.9308967081909</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.25917518540923</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.146369152342913</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.59380041867311</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.89260457060016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.6691671648044</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272849</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465662</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393014</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.37941682720984</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.44045370237433</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>80.6205537123338</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>77.884950461797</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.88495046179825</v>
       </c>
       <c r="F34" t="n">
         <v>129.8498147279726</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-4.283240556689612e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340064</v>
+        <v>187548.4044340063</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
+        <v>221965.3149147518</v>
+      </c>
+      <c r="F2" t="n">
         <v>221965.3149147517</v>
-      </c>
-      <c r="F2" t="n">
-        <v>221965.3149147516</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26335,10 +26335,10 @@
         <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="L2" t="n">
         <v>224415.4372624255</v>
@@ -26347,13 +26347,13 @@
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596696</v>
+        <v>12456.98663596688</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317671</v>
+        <v>92025.75929317673</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13430.06689216532</v>
+        <v>13430.06689216534</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184276</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="L4" t="n">
-        <v>18730.51986650572</v>
+        <v>18730.51986650563</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262560.348747145</v>
+        <v>-1262907.967676951</v>
       </c>
       <c r="C6" t="n">
-        <v>25058.70326809071</v>
+        <v>25058.70326809044</v>
       </c>
       <c r="D6" t="n">
-        <v>25058.70326809083</v>
+        <v>25058.70326809061</v>
       </c>
       <c r="E6" t="n">
-        <v>-218176.4848283538</v>
+        <v>-218211.2227537892</v>
       </c>
       <c r="F6" t="n">
-        <v>107235.9769790017</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="G6" t="n">
-        <v>107235.9769790018</v>
+        <v>107201.2390535661</v>
       </c>
       <c r="H6" t="n">
-        <v>107235.9769790018</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="I6" t="n">
-        <v>107235.9769790021</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="J6" t="n">
-        <v>-110295.2254182757</v>
+        <v>-110329.9633437112</v>
       </c>
       <c r="K6" t="n">
-        <v>107235.9769790019</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="L6" t="n">
-        <v>90796.34292417178</v>
+        <v>90783.87883826059</v>
       </c>
       <c r="M6" t="n">
-        <v>8998.944190649723</v>
+        <v>8998.944190649767</v>
       </c>
       <c r="N6" t="n">
+        <v>101024.7034838264</v>
+      </c>
+      <c r="O6" t="n">
+        <v>101024.7034838267</v>
+      </c>
+      <c r="P6" t="n">
         <v>101024.7034838265</v>
-      </c>
-      <c r="O6" t="n">
-        <v>101024.7034838265</v>
-      </c>
-      <c r="P6" t="n">
-        <v>101024.7034838264</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197081017</v>
+        <v>8.71341419708112</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>206.2431374333849</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>272.5499811934117</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>157.8156224557567</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>1.254433345183713</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923773</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>279.6508909762559</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>174.1309518529355</v>
+        <v>231.9518014765115</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.353794564184568e-13</v>
+        <v>-1.301146286410376e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.598573539425463e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.395446886618932e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="G34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="H34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="J34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="K34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="L34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="M34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="N34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="O34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="P34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="R34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="S34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="T34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="V34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="W34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5712332949587</v>
+        <v>15.5712332949586</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791206</v>
+        <v>96.61771655791202</v>
       </c>
       <c r="K34" t="n">
         <v>279.9038217045936</v>
@@ -37233,7 +37233,7 @@
         <v>409.9132476140901</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960038</v>
+        <v>441.8436602960037</v>
       </c>
       <c r="N34" t="n">
         <v>437.1973662848661</v>
@@ -37245,7 +37245,7 @@
         <v>311.2030066015836</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948571</v>
+        <v>135.973490594857</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
